--- a/output/calorimetry/test_6_15.xlsx
+++ b/output/calorimetry/test_6_15.xlsx
@@ -187,10 +187,10 @@
     <t>4.79998779296875</t>
   </si>
   <si>
-    <t>1.2804147118308073e-06</t>
-  </si>
-  <si>
-    <t>1.418966120051436e-06</t>
+    <t>5.575661819269246e-05</t>
+  </si>
+  <si>
+    <t>6.103324607390475e-05</t>
   </si>
   <si>
     <t>OK</t>
@@ -616,16 +616,16 @@
         <v>49</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2">
-        <v>9.99999886117819</v>
+        <v>-9.99999886117819</v>
       </c>
       <c r="E2">
-        <v>13.00008072751907</v>
+        <v>-13.00008072751907</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.515921616715142e-07</v>
+        <v>2.842613907042811e-06</v>
       </c>
       <c r="E3">
-        <v>7.637486520184754e-06</v>
+        <v>2.549392346979301e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1720,10 +1720,10 @@
         <v>46</v>
       </c>
       <c r="B2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>-0.9865464967069327</v>
+        <v>-0.9995575693907462</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1731,7 +1731,7 @@
         <v>47</v>
       </c>
       <c r="B3">
-        <v>-0.9865464967069328</v>
+        <v>-0.9995575693907465</v>
       </c>
       <c r="C3">
         <v>1</v>
